--- a/Tools and methodologies.xlsx
+++ b/Tools and methodologies.xlsx
@@ -2,23 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$C$51</definedName>
-  </definedNames>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,48 +25,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="8"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,51 +43,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -196,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,44 +135,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -270,32 +199,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -322,27 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -351,142 +244,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -498,85 +415,81 @@
   </sheetPr>
   <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
-  <cols>
-    <col width="29.453125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="15.54296875" customWidth="1" style="3" min="2" max="2"/>
-    <col width="18.6328125" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="17.81640625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="45.1796875" customWidth="1" style="4" min="5" max="5"/>
-    <col width="25" customWidth="1" style="4" min="6" max="6"/>
-    <col width="22.54296875" customWidth="1" style="4" min="7" max="7"/>
-    <col width="35.90625" customWidth="1" style="3" min="8" max="8"/>
-    <col width="9.1796875" customWidth="1" style="3" min="9" max="9"/>
-    <col width="14.54296875" customWidth="1" style="3" min="10" max="10"/>
-    <col width="59.7265625" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
-    <col width="9.1796875" customWidth="1" style="3" min="12" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Relevance</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Element</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Further info</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Useful information for Sova</t>
         </is>
       </c>
-      <c r="J1" s="11" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>Legend</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="42" customHeight="1">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Unnamed: 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>McKinsey 7S</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Framework</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
@@ -586,17 +499,17 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Analyzes a company's “organizational design.” The goal of the model is to depict how effectiveness can be achieved in an organization through the interactions of seven key elements – Structure, Strategy, Skill, System, Shared Values, Style, and Staff.</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>McKinsey &amp; Company's consultants Robert H. Waterman, Jr. and Tom Peters in the 1980s</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://www.mckinsey.com/capabilities/strategy-and-corporate-finance/our-insights/enduring-ideas-the-7-s-framework</t>
         </is>
@@ -606,29 +519,29 @@
           <t>Holistic organisational alignment tool. Use when startups are scaling and need to ensure all 7 elements (Strategy, Structure, Systems, Shared Values, Style, Staff, Skills) work together. Particularly valuable for founders transitioning from startup to scaleup phase.</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Framework</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>a basic structure underlying a system, concept, or text.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="63" customHeight="1">
-      <c r="A3" s="10" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Cynefin</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Framework</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
@@ -638,17 +551,17 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>The Cynefin, pronounced "ku-nev-in," framework is a conceptual framework used to aid decision-making. Cynefin is divided into 5 domains: Clear, Complicated, Complex, Chaotic and Disorder (which in this case has a sense of disorientation, Confusion, rather than mess). By analyzing a situation and understanding its context, we can categorize it into each of the domains and make the most effective decision.</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1999 by Dave Snowden when he worked for IBM Global Services</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://thecynefin.co/about-us/about-cynefin-framework/</t>
         </is>
@@ -658,29 +571,29 @@
           <t>Decision-making framework for complex environments. Helps founders identify whether their challenge is Simple, Complicated, Complex, or Chaotic - each requiring different approaches. Critical for pivoting decisions and market uncertainty.</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>a system of methods used in a particular area of study or activity.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1">
-      <c r="A4" s="10" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Value chain</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Framework</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
@@ -690,17 +603,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>A value chain is a progression of activities that a firm operating in a specific industry performs in order to deliver a valuable product to the end customer.</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Michael Porter, 1985, Book: Competitive Advantage: Creating and Sustaining Superior Performance</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://online.hbs.edu/blog/post/what-is-value-chain-analysis</t>
         </is>
@@ -710,29 +623,29 @@
           <t>Maps all activities from raw inputs to customer delivery. Essential for startups to identify where they add unique value and where to optimise costs. Use before seeking investment to demonstrate operational understanding.</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>a thing used as an example to follow or imitate.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1">
-      <c r="A5" s="10" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Value proposition canvas</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Framework</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
@@ -742,17 +655,17 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>The value proposition canvas is a framework that helps designers ensure that there is a fit between the product-service idea and the market.</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Dr. Alexander Osterwalder and published in his books Value Proposition Design (2014) and Business Model Generation (2010).</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://www.designabetterbusiness.tools/tools/value-proposition-canvas</t>
         </is>
@@ -762,29 +675,29 @@
           <t>Links product features to customer needs. Core Lean Startup tool - use before building anything to validate product-market fit. Maps Customer Jobs, Pains, Gains to your Value Map (Products, Pain Relievers, Gain Creators).</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>a device or implement used to carry out a particular function.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1">
-      <c r="A6" s="10" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>TQM</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Framework</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
@@ -794,50 +707,49 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>A management framework based on the belief that an organization can build long-term success by having all its members -- from low-level workers to its highest-ranking executives -- focus on improving quality and, thus, delivering customer satisfaction.</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>W. Edwards Deming for the United States Navy in 1985</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://safetyculture.com/topics/total-quality-management/</t>
         </is>
       </c>
-      <c r="H6" s="8" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Organisation-wide quality culture. More relevant for scaleups than early startups. Focus on customer satisfaction metrics and continuous improvement mindset. Foundation for ISO certification journey.</t>
         </is>
       </c>
-      <c r="I6" s="8" t="n"/>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>a level of quality or attainment.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="63" customHeight="1">
-      <c r="A7" s="10" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Business excellence framework</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Framework</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
@@ -847,40 +759,39 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">An integrated leadership and management system that describes the elements essential to organisations sustaining high performance levels. It can be used to assess and improve any aspect of an organisation, including leadership, strategy and planning, people, information and knowledge, safety, service delivery, product quality and bottom-line results. </t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>SAI Global, 2004</t>
         </is>
       </c>
-      <c r="G7" s="6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://businessexcellenceaustralia.org.au/abef/</t>
         </is>
       </c>
-      <c r="H7" s="8" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sova's foundational framework. The Australian Business Excellence Framework (ABEF) provides the integrated leadership and management system that Sova's 9 Elements are built upon. Use for comprehensive organisational assessment.</t>
         </is>
       </c>
-      <c r="I7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">Prosci ADKAR® Model </t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Change management</t>
         </is>
@@ -890,40 +801,39 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>The word “ADKAR” is an acronym for the five outcomes an individual needs to achieve for a change to be successful: Awareness, Desire, Knowledge, Ability and Reinforcement.</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Prosci.com</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://www.prosci.com/methodology/adkar</t>
         </is>
       </c>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Individual change management model. Use when implementing significant changes - new systems, processes, or culture shifts. Addresses Awareness, Desire, Knowledge, Ability, Reinforcement. Essential for startup pivots affecting team.</t>
         </is>
       </c>
-      <c r="I8" s="8" t="n"/>
-    </row>
-    <row r="9" ht="42" customHeight="1">
-      <c r="A9" s="10" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Business process management (BPM)</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
@@ -933,35 +843,29 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>The discipline in which people use various methods to discover, model, analyze, measure, improve, optimize, and automate business processes. Any combination of methods used to manage a company's business processes is BPM.</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Discipline of optimising business processes. Relevant when startups have established repeatable processes that need documentation and improvement. Precursor to automation and scaling operations.</t>
         </is>
       </c>
-      <c r="I9" s="8" t="n"/>
-    </row>
-    <row r="10" ht="42" customHeight="1">
-      <c r="A10" s="10" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Theory of Constraints (TOC)</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -971,40 +875,39 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>A methodology for identifying the most important limiting factor (i.e., constraint) that stands in the way of achieving a goal and then systematically improving that constraint until it is no longer the limiting factor.</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Eliyahu M. Goldratt in his 1984 book titled The Goal</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://www.lean.org/the-lean-post/articles/what-is-the-theory-of-constraints-and-how-does-it-compare-to-lean-thinking/</t>
         </is>
       </c>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Identifies and resolves bottlenecks. Powerful for startups with limited resources - focus all effort on the ONE constraint limiting growth. Ask: 'What single thing, if improved, would have the greatest impact?'</t>
         </is>
       </c>
-      <c r="I10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" s="10" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Six Sigma</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -1014,40 +917,39 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>A set of methodologies and tools used to improve business processes by reducing defects and errors, minimizing variation, and increasing quality and efficiency.</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Bill Smith while working at Motorola in 1986</t>
         </is>
       </c>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://asq.org/quality-resources/six-sigma</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Data-driven defect reduction methodology. More relevant for manufacturing/scaleups than early startups. DMAIC approach useful for systematic problem-solving once processes are established.</t>
         </is>
       </c>
-      <c r="I11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="52.5" customHeight="1">
-      <c r="A12" s="10" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Design thinking</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
@@ -1057,40 +959,39 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Design thinking is a non-linear, iterative process that teams use to understand users, challenge assumptions, redefine problems and create innovative solutions to prototype and test. Involving five phases—Empathize, Define, Ideate, Prototype and Test—it is most useful to tackle problems that are ill-defined or unknown.</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve"> extending from the 1950s and '60s,</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://www.interaction-design.org/literature/topics/design-thinking</t>
         </is>
       </c>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Human-centred innovation process. Core startup methodology - Empathise with customers before building. The 5 phases (Empathise, Define, Ideate, Prototype, Test) align perfectly with Lean Startup validation.</t>
         </is>
       </c>
-      <c r="I12" s="8" t="n"/>
-    </row>
-    <row r="13" ht="84" customHeight="1">
-      <c r="A13" s="10" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Double Diamond</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
@@ -1100,40 +1001,39 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>The Double Diamond is a structured design approach to tackle challenges in four phases: Discover /Research— insight into the problem (diverging) Define/Synthesis — the area to focus upon (converging) Develop/ Ideation— potential solutions (diverging) Deliver /Implementation— solutions that work (converging)</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>British Design Council in 2005, adapted from the divergence-convergence model proposed in 1996 by Hungarian-American linguist Béla H. Bánáthy</t>
         </is>
       </c>
-      <c r="G13" s="6" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://medium.com/digital-experience-design/how-to-apply-a-design-thinking-hcd-ux-or-any-creative-process-from-scratch-b8786efbf812#:~:text=The%20Double%20Diamond%20is%20a,%E2%80%94%20solutions%20that%20work%20(converging)</t>
         </is>
       </c>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Diverge-converge design process. Useful for startups to avoid solution-jumping. First diamond: understand the problem (Discover, Define). Second diamond: solve the problem (Develop, Deliver). Prevents building wrong thing.</t>
         </is>
       </c>
-      <c r="I13" s="8" t="n"/>
-    </row>
-    <row r="14" ht="63" customHeight="1">
-      <c r="A14" s="10" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Human centred design</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
@@ -1143,40 +1043,39 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Human-centered design is a practice where designers focus on four key aspects. They focus on people and their context. They seek to understand and solve the right problems, the root problems. They understand that everything is a complex system with interconnected parts. Finally, they do small interventions.</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>traced to the founding of the Stanford University design program in 1958 by Professor John E. Arnold</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://www.interaction-design.org/literature/topics/human-centered-design#:~:text=They%20focus%20on%20people%20and,Finally%2C%20they%20do%20small%20interventions.</t>
         </is>
       </c>
-      <c r="H14" s="8" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Design with users, not for users. Foundation of successful products. Involves users throughout development, not just at testing. Essential mindset for customer discovery and product development.</t>
         </is>
       </c>
-      <c r="I14" s="8" t="n"/>
-    </row>
-    <row r="15" ht="73.5" customHeight="1">
-      <c r="A15" s="10" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>SCRUM</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
@@ -1186,41 +1085,40 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>An agile project management framework that helps teams structure and manage their work through a set of values, principles, and practices.</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1986 Harvard Business Review paper titled "The New New Product Development Game" by Hirotaka Takeuchi and Ikujiro Nonaka
 In 2002, Schwaber with others founded the Scrum Alliance and set up the Certified Scrum accreditation series.</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://www.scrumalliance.org/about-scrum</t>
         </is>
       </c>
-      <c r="H15" s="8" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Agile framework for iterative delivery. Ideal for product development teams. Sprints, standups, and retrospectives keep startups focused and adaptive. Works best with dedicated team of 5-9 people.</t>
         </is>
       </c>
-      <c r="I15" s="8" t="n"/>
-    </row>
-    <row r="16" ht="31.5" customHeight="1">
-      <c r="A16" s="10" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>DFSS / DMADV</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
@@ -1230,40 +1128,39 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Design for Six Sigma is a collection of best-practices for the development of new products and processes.</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>General Electric</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://www.creativesafetysupply.com/articles/understanding-design-for-six-sigma-dfss/</t>
         </is>
       </c>
-      <c r="H16" s="8" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Design for Six Sigma - building quality into new products. More relevant for hardware/manufacturing startups. Define, Measure, Analyse, Design, Verify approach ensures new products meet customer requirements.</t>
         </is>
       </c>
-      <c r="I16" s="8" t="n"/>
-    </row>
-    <row r="17" ht="42" customHeight="1">
-      <c r="A17" s="10" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Prince / PRINCE2</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Project management</t>
         </is>
@@ -1273,17 +1170,17 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>a structured project management method[1] and practitioner certification programme. PRINCE2 emphasises dividing projects into manageable and controllable stages.</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Originally UK government standard, July 2013, ownership of the rights to PRINCE2 were transferred from HM Cabinet Office to AXELOS Ltd</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://www.prince2.com/aus/what-is-prince2</t>
         </is>
@@ -1294,18 +1191,18 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="31.5" customHeight="1">
-      <c r="A18" s="10" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Agile</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Project management</t>
         </is>
@@ -1315,17 +1212,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>a project management approach that involves breaking the project into phases and emphasizes continuous collaboration and improvement. Teams follow a cycle of planning, executing, and evaluating.</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Popularized in the 2001 Manifesto for Agile Software Development</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://asana.com/resources/agile-methodology</t>
         </is>
@@ -1336,18 +1233,18 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="52.5" customHeight="1">
-      <c r="A19" s="10" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Kubler Ross Change curve</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Change management</t>
         </is>
@@ -1357,17 +1254,17 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>The Change Curve is a model organizations can use to understand the different stages people and the organization go through when a change occurs. There are four key stages people tend to go through as they experience change. These are: shock/denial, anger/fear, acceptance, and commitment.</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Attributed to psychiatrist Elisabeth Kubler-Ross, resulting from her work on personal transition in grief and bereavement in 1969</t>
         </is>
       </c>
-      <c r="G19" s="9" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/au03rgg/the-change-curve</t>
         </is>
@@ -1378,18 +1275,18 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="58" customHeight="1">
-      <c r="A20" s="10" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Lewin's change process</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Theory</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Change management</t>
         </is>
@@ -1399,17 +1296,17 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>A three-stage model to change organizational behavior. The three stages are: Unfreeze, Change, Refreeze</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Kurt Lewin, 1951</t>
         </is>
       </c>
-      <c r="G20" s="9" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/ajm9l1e/lewins-change-management-model</t>
         </is>
@@ -1420,18 +1317,18 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="52.5" customHeight="1">
-      <c r="A21" s="10" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Kotter's 8 Step Model of Change</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Change management</t>
         </is>
@@ -1441,17 +1338,17 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>8 Step Model of Change includes: creating a sense of urgency, forming powerful guiding coalitions, developing a vision and a strategy, communicating the vision, removing obstacles and empowering employees for action, creating short-term wins, consolidating gains and strengthening change by anchoring change in the culture.</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>John Kotter, 1995 book, "Leading Change."</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/a8nu5v5/kotters-8-step-change-model</t>
         </is>
@@ -1462,18 +1359,18 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="31.5" customHeight="1">
-      <c r="A22" s="10" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Lippitt-Knoster change management model</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Change management</t>
         </is>
@@ -1483,17 +1380,17 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">The Lippitt-Knoster change management model identifies the elements required for effective change: vision, consensus, skills, incentives, resources, and an action plan. </t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>R. Lippitt and T. Knoster in the 1980s</t>
         </is>
       </c>
-      <c r="G22" s="6" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://www.actfl.org/uploads/files/general/TLE_Winter21_Article.pdf</t>
         </is>
@@ -1504,18 +1401,18 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="116" customHeight="1">
-      <c r="A23" s="10" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Sostac</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
@@ -1525,17 +1422,17 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>SOSTAC is a marketing model comprises six key stages, each vital in shaping a robust marketing strategy: Situation Analysis, Objectives, Strategy, Tactics, Actions, and Control.</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>PR Smit, 1990s and later formalized in his 1998 book Marketing Communications</t>
         </is>
       </c>
-      <c r="G23" s="9" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://www.davechaffey.com/digital-marketing-glossary/sostac-marketing-plan-model/#:~:text=SOSTAC%C2%AE%20has%20six%20steps,with%20Fiona%20Ellis%2DChadwick).</t>
         </is>
@@ -1546,18 +1443,18 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="43.5" customHeight="1">
-      <c r="A24" s="10" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Project management triangle</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Project management</t>
         </is>
@@ -1567,17 +1464,17 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">A project management triangle is a project management model. It proposes that managing three constraints—cost, scope and time—leads to a quality final deliverable. </t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1950s</t>
         </is>
       </c>
-      <c r="G24" s="9" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>https://www.forbes.com/advisor/business/project-management-triangle/</t>
         </is>
@@ -1588,18 +1485,18 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="43.5" customHeight="1">
-      <c r="A25" s="10" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Porter’s Five Forces Model</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
@@ -1609,18 +1506,18 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>A business strategy model that organizations use to understand more about the main competitive forces at work in their industry.
 Porter's Five Forces include: Competitive Rivalry, Supplier Power, Buyer Power, Threat of Substitution, and Threat of New Entry.</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Michael Porter, 1979</t>
         </is>
       </c>
-      <c r="G25" s="9" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/at7k8my/porter-s-five-forces</t>
         </is>
@@ -1631,18 +1528,18 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="58" customHeight="1">
-      <c r="A26" s="10" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Hambrick and Fredrickson’s Strategy Diamond</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
@@ -1652,17 +1549,17 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>A collection of the five elements forming a coherent business strategy. These five elements of strategy include Arenas, Differentiators, Vehicles, Staging, and Economic Logic.</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Donald Hambrick and James Fredrickson, 2001 edition of "The Academy of Management Executive"</t>
         </is>
       </c>
-      <c r="G26" s="9" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/a4gs53f/hambrick-and-fredricksons-strategy-diamond</t>
         </is>
@@ -1673,18 +1570,18 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="58" customHeight="1">
-      <c r="A27" s="10" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>BCG Growth-Share Matrix</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
@@ -1694,17 +1591,17 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>A planning tool that uses graphical representations of a company's products and services in an effort to help the company decide what it should keep, sell, or invest more in.</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1968 by BCG's founder Bruce Henderson</t>
         </is>
       </c>
-      <c r="G27" s="9" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>https://www.bcg.com/about/overview/our-history/growth-share-matrix</t>
         </is>
@@ -1715,18 +1612,18 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="43.5" customHeight="1">
-      <c r="A28" s="10" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Ansoff Matrix</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
@@ -1736,17 +1633,17 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Helps marketers identify opportunities to grow revenue for a business through developing new products and services or "tapping into" new markets.</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>H. Igor Ansoff, 1957</t>
         </is>
       </c>
-      <c r="G28" s="9" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/a2gy5ya/the-ansoff-matrix</t>
         </is>
@@ -1757,18 +1654,18 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="31.5" customHeight="1">
-      <c r="A29" s="10" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>ISO9001</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
@@ -1778,17 +1675,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>The ISO 9001:2015 standard is the internationally benchmarked quality management system standard that used by organisations of all sizes and industries, all over the world.</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1987 by the International Organization for Standardization (ISO)</t>
         </is>
       </c>
-      <c r="G29" s="9" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>https://saiassurance.com.au/iso-9001</t>
         </is>
@@ -1799,18 +1696,18 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="43.5" customHeight="1">
-      <c r="A30" s="10" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>B corp</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
@@ -1820,17 +1717,17 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>B Corp Certification is a designation that a business is meeting high standards of verified performance, accountability, and transparency on factors from employee benefits and charitable giving to supply chain practices and input materials.</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>B Lab</t>
         </is>
       </c>
-      <c r="G30" s="9" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/B_Corporation_%28certification%29</t>
         </is>
@@ -1841,18 +1738,18 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="42" customHeight="1">
-      <c r="A31" s="10" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Golden circle</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Theory</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">Communication </t>
         </is>
@@ -1862,17 +1759,17 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>It is a leadership and communication concept based on the idea that great leaders and organizations inspire action by communicating their "why" (their purpose), rather than just focusing on the "what" or "how" of their actions</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Simon Sinek, 2010</t>
         </is>
       </c>
-      <c r="G31" s="9" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>https://simonsinek.com/golden-circle/</t>
         </is>
@@ -1883,18 +1780,18 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="43.5" customHeight="1">
-      <c r="A32" s="10" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Theory x and theory y</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Theory</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
@@ -1904,17 +1801,17 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Theory X managers believe their employees lack creativity and only work for a paycheck. Theory Y is a participative management style where managers believe employees want to work and make decisions with less supervision.</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Douglas McGregor, 1950s, and developed further in the 1960s</t>
         </is>
       </c>
-      <c r="G32" s="9" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/adi3nc1/theory-x-and-theory-y</t>
         </is>
@@ -1925,18 +1822,18 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="43.5" customHeight="1">
-      <c r="A33" s="10" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Capability / Process Maturity Model</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
@@ -1946,17 +1843,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Assesses what level of knowledge and documentation exists for the current state processes. The scale has 5 incremental levels where each level builds on the governance, ownership, documented processes and performance metrics.</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Managing the Software Process by Watts Humphrey, 1989</t>
         </is>
       </c>
-      <c r="G33" s="9" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Capability_Maturity_Model_Integration</t>
         </is>
@@ -1967,18 +1864,18 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="105" customHeight="1">
-      <c r="A34" s="10" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Eisenhower matrix</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
@@ -1988,17 +1885,17 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>The Eisenhower Matrix, also known as Urgent-Important Matrix, is a decision making principle and productivity tool that helps prioritize your many tasks. The four quadrants with this simple framework: Do, decide, delegate, and don’t do (or delete).</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>In a 1954 speech to the Second Assembly of the World Council of Churches, former U.S. President Dwight D. Eisenhower, who was quoting Dr J. Roscoe Miller, president of Northwestern University, said: "I have two kinds of problems: the urgent and the important. The urgent are not important, and the important are never urgent."</t>
         </is>
       </c>
-      <c r="G34" s="9" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/al1e0k5/eisenhowers-urgentimportant-principle</t>
         </is>
@@ -2009,18 +1906,18 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="73.5" customHeight="1">
-      <c r="A35" s="10" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Action priority matrix</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
@@ -2030,7 +1927,7 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>An action priority matrix is a graphic you can use to determine the priority level of each task in a given project. It has four squares with intersecting labels that refer to different task characteristics: Quick wins (high impact, low effort)
 Major projects (high impact, high effort)
@@ -2038,12 +1935,12 @@
 Thankless tasks (low impact, high effort)</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Stephen Covey,  1989</t>
         </is>
       </c>
-      <c r="G35" s="9" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/agst6d0/the-action-priority-matrix</t>
         </is>
@@ -2054,18 +1951,18 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="31.5" customHeight="1">
-      <c r="A36" s="10" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>PDSA Cycle</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2075,17 +1972,17 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>PDSA, or Plan-Do-Study-Act, is an iterative, four-stage problem-solving model used for improving a process or carrying out change.</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t xml:space="preserve"> associated with W. Edwards Deming, who is considered by many to be the father of modern quality control</t>
         </is>
       </c>
-      <c r="G36" s="9" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>https://deming.org/explore/pdsa/</t>
         </is>
@@ -2096,18 +1993,18 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="42" customHeight="1">
-      <c r="A37" s="10" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>DMAIC</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2117,17 +2014,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Define, Measure, Analyze, Improve, and Control is a DMAIC acronym. The process includes five phases: defining the problem, improving the activity, identifying the opportunities for improvement, setting project goals, and meeting the needs of the customer (internal and external)</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1950s by W. Edwards Deming</t>
         </is>
       </c>
-      <c r="G37" s="9" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>https://www.6sigma.us/dmaic-process/</t>
         </is>
@@ -2138,18 +2035,18 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="101.5" customHeight="1">
-      <c r="A38" s="10" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>SWOT</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2159,17 +2056,17 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">SWOT stands for Strengths, Weaknesses, Opportunities, and Threats, and so a SWOT analysis is a technique for assessing these four aspects of your business. </t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Stewart et al., 1965 or Albert Humphrey, 1960s</t>
         </is>
       </c>
-      <c r="G38" s="9" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/amtbj63/swot-analysis#:~:text=SWOT%20stands%20for%20Strengths%2C%20Weaknesses,successful%20strategy%20for%20the%20future.</t>
         </is>
@@ -2180,18 +2077,18 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="58" customHeight="1">
-      <c r="A39" s="10" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Value Stream Mapping</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2201,17 +2098,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Value-stream mapping, also known as material- and information-flow mapping, is a lean-management method for analyzing the current state and designing a future state for the series of events that take a product or service from the beginning of the specific process until it reaches the customer.</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>First utilized by Toyota engineers in the twentieth century</t>
         </is>
       </c>
-      <c r="G39" s="9" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>https://www.atlassian.com/continuous-delivery/principles/value-stream-mapping</t>
         </is>
@@ -2222,18 +2119,18 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="43.5" customHeight="1">
-      <c r="A40" s="10" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>8 Wastes</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2243,17 +2140,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Establish the most likely areas where waste will occur: defects, overproduction, transportation, non-value adding processing, motion, waiting, unused talent and inventory.</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Taiichi Ohno for the Toyota Production System</t>
         </is>
       </c>
-      <c r="G40" s="9" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/pulse/what-8-wastes-lean-reinhardt-lohbauer/</t>
         </is>
@@ -2264,18 +2161,18 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="21" customHeight="1">
-      <c r="A41" s="10" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Fishbone diagram (AKA Cause and Effect Diagrams or Ishikawa Diagrams)</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2285,17 +2182,17 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Bbreak down (in successive layers of detail) root causes that potentially contribute to a particular effect</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Kaoru Ishikawa, 1960s</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/a25caig/cause-and-effect-analysis</t>
         </is>
@@ -2306,18 +2203,18 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="14.5" customHeight="1">
-      <c r="A42" s="10" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>5S</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2327,17 +2224,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Cyclical methodology: sort, set in order, shine, standardize, sustain the cycle which results in continuous improvement.</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1950s and 1960s by the Japanese automobile company Toyota</t>
         </is>
       </c>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/ag1aj2m/the-5s-system</t>
         </is>
@@ -2348,18 +2245,18 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="42" customHeight="1">
-      <c r="A43" s="10" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Gemba</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2369,17 +2266,17 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">The gemba walk, much like management by walking around (MBWA), is an activity that takes management to the front lines to look for ways and opportunities to practice genba kaizen, or practical shop floor improvement. </t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1950s and 1960s by the Japanese automobile company Toyota. Taiichi Ohno,[5] an executive at Toyota</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Gemba</t>
         </is>
@@ -2390,18 +2287,18 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="31.5" customHeight="1">
-      <c r="A44" s="10" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Just in Time (JIT)</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2411,17 +2308,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>The just-in-time (JIT) inventory system is a management strategy that aligns raw-material orders from suppliers directly with production schedules.</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1950s and 1960s by the Japanese automobile company Toyota</t>
         </is>
       </c>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>https://www.forbes.com/advisor/business/just-in-time-inventory/</t>
         </is>
@@ -2432,18 +2329,18 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="52.5" customHeight="1">
-      <c r="A45" s="10" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Kaizen</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2453,17 +2350,17 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Kaizen is a Japanese term meaning change for the better or continuous improvement. It is a Japanese business philosophy that concerns the processes that continuously improve operations and involve all employees.</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Kaizen was first practiced in Japanese businesses after World War II, influenced in part by American business and quality-management teachers, and most notably as part of The Toyota Way</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/af0ltld/kaizen</t>
         </is>
@@ -2474,18 +2371,18 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="52.5" customHeight="1">
-      <c r="A46" s="10" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Kanban</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2495,17 +2392,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>An Agile management method built on a philosophy of continuous improvement, where work items are “pulled” from a product backlog into a steady flow of work. The framework is applied using Kanban boards—a form of visual project management. “To Do,” “Doing,” and “Done” are typical columns on a Kanban board.</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1950s and 1960s by the Japanese automobile company Toyota</t>
         </is>
       </c>
-      <c r="G46" s="4" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>https://www.atlassian.com/agile/kanban#:~:text=In%20Japanese%2C%20kanban%20literally%20translates,in%20a%20highly%20visual%20manner.</t>
         </is>
@@ -2516,18 +2413,18 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="21" customHeight="1">
-      <c r="A47" s="10" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Poka-Yoke (AKA Zero Defects, Mistake Proofing)</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2537,17 +2434,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Poka-yoke is a Japanese lean manufacturing strategy that aims to eliminate mistakes and defects during the manufacturing process</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Shigeo Shingo in the 1960s</t>
         </is>
       </c>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/axgfb6b/zero-defects</t>
         </is>
@@ -2558,18 +2455,18 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="14.5" customHeight="1">
-      <c r="A48" s="10" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Root Casue Analysis</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2579,17 +2476,17 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Identify the origin of a problem using a specific set of steps, with associated tools, to find the primary cause of the problem</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Sakichi Toyoda (1867 - 1930)</t>
         </is>
       </c>
-      <c r="G48" s="4" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/ag6pkn9/root-cause-analysis</t>
         </is>
@@ -2600,18 +2497,18 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="31.5" customHeight="1">
-      <c r="A49" s="10" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Andon</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2621,17 +2518,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>A system which notifies managerial, maintenance, and other workers of a quality or process problem.</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>W. Edwards Deming and others who developed what became Kaizen after World War II</t>
         </is>
       </c>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Andon_(manufacturing)</t>
         </is>
@@ -2642,18 +2539,18 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="21" customHeight="1">
-      <c r="A50" s="10" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>SMED (Single-Minute Exchange of Die)</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2663,17 +2560,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>A system for dramatically reducing the time it takes to complete equipment changeovers.</t>
         </is>
       </c>
-      <c r="F50" s="4" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Frederick Winslow Taylor, 1911</t>
         </is>
       </c>
-      <c r="G50" s="4" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>https://www.leanproduction.com/smed/</t>
         </is>
@@ -2684,18 +2581,18 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="21" customHeight="1">
-      <c r="A51" s="10" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>5 whys</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2705,17 +2602,17 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>An iterative interrogative technique used to explore the cause-and-effect relationships underlying a particular problem.</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Sakichi Toyoda</t>
         </is>
       </c>
-      <c r="G51" s="4" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/a3mi00v/5-whys</t>
         </is>
@@ -2726,18 +2623,18 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="52.5" customHeight="1">
-      <c r="A52" s="10" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>SIPOC</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -2747,17 +2644,17 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>A SIPOC (suppliers, inputs, process, outputs, customers) diagram is a visual tool for documenting a business process from beginning to end prior to implementation. SIPOC -- pronounced sigh-pock -- diagrams are also referred to as high-level process maps because they do not contain much detail.</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1980s</t>
         </is>
       </c>
-      <c r="G52" s="4" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>https://asana.com/resources/sipoc-diagram</t>
         </is>
@@ -2768,18 +2665,18 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="31.5" customHeight="1">
-      <c r="A53" s="10" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>PERT diagram</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>Project management</t>
         </is>
@@ -2789,17 +2686,17 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">A PERT chart, also known as a PERT diagram, is a tool used to schedule, organize, and map out tasks within a project. PERT stands for program evaluation and review technique. </t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Charles E. Clark for the United States Navy in 1958</t>
         </is>
       </c>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>https://asana.com/resources/pert-chart</t>
         </is>
@@ -2810,18 +2707,18 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="21" customHeight="1">
-      <c r="A54" s="10" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>RACI</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>Project management</t>
         </is>
@@ -2831,17 +2728,17 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Linear responsibility chart, describes the participation by various roles in completing tasks or deliverables for a project or business process.</t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Edmond F. Sheehan in the early 1950s</t>
         </is>
       </c>
-      <c r="G54" s="4" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/agn584l/the-raci-matrix</t>
         </is>
@@ -2852,18 +2749,18 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="21" customHeight="1">
-      <c r="A55" s="10" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>PEST analysis</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
@@ -2873,17 +2770,17 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>PEST analysis describes a framework of macro-environmental factors used in the environmental scanning component of strategic management.</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1967 by Aguilar</t>
         </is>
       </c>
-      <c r="G55" s="6" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/aqa3q37/pest-analysis</t>
         </is>
@@ -2894,18 +2791,18 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="21" customHeight="1">
-      <c r="A56" s="10" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>PESTLE analysis</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
@@ -2915,17 +2812,17 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>studies the key external factors (Political, Economic, Sociological, Technological, Legal and Environmental) that influence an organisation.</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1968 by Aguilar</t>
         </is>
       </c>
-      <c r="G56" s="6" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/aqa3q37/pest-analysis</t>
         </is>
@@ -2936,18 +2833,18 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="31.5" customHeight="1">
-      <c r="A57" s="10" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>VRIO</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
@@ -2957,17 +2854,17 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>VRIO is an acronym for a four-question framework focusing on value, rarity, imitability, and organization, the criteria used to evaluate an organization's resources and capabilities.</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Jay Barney in 1991</t>
         </is>
       </c>
-      <c r="G57" s="6" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/a182jt9/vrio-analysis</t>
         </is>
@@ -2978,18 +2875,18 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="31.5" customHeight="1">
-      <c r="A58" s="10" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>MoSCoW</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t>Tool</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
@@ -2999,17 +2896,17 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Prioritization technique for managing requirements. The acronym MoSCoW represents four categories of initiatives: must-have, should-have, could-have, and won't-have, or will not have right now.</t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Dai Clegg in 1994</t>
         </is>
       </c>
-      <c r="G58" s="6" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/a4xmovt/the-moscow-method</t>
         </is>
@@ -3020,18 +2917,18 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="52.5" customHeight="1">
-      <c r="A59" s="10" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>OODA loop</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Problem solving</t>
         </is>
@@ -3041,17 +2938,17 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>The OODA loop (Observe, Orient, Decide, Act) is a four-step approach to decision-making that focuses on filtering available information, putting it in context and quickly making the most appropriate decision while also understanding that changes can be made as more data becomes available.</t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>United States Air Force Colonel John Boyd</t>
         </is>
       </c>
-      <c r="G59" s="6" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>https://www.mindtools.com/a3ldgz1/ooda-loops</t>
         </is>
@@ -3083,9 +2980,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Efficiency, Validation stage(s).</t>
@@ -3113,9 +3007,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Validation stage(s).</t>
@@ -3143,8 +3034,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>Sova - Australian Startup Setup Guide</t>
@@ -3177,9 +3066,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Efficiency stage(s).</t>
@@ -3207,9 +3093,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Scale stage(s).</t>
@@ -3237,9 +3120,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Validation stage(s).</t>
@@ -3267,9 +3147,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Scale stage(s).</t>
@@ -3297,9 +3174,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Scale stage(s).</t>
@@ -3327,9 +3201,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Efficiency stage(s).</t>
@@ -3357,9 +3228,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Discovery stage(s).</t>
@@ -3387,9 +3255,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Validation stage(s).</t>
@@ -3417,9 +3282,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Efficiency stage(s).</t>
@@ -3447,9 +3309,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Scale stage(s).</t>
@@ -3477,9 +3336,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Efficiency stage(s).</t>
@@ -3507,9 +3363,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Discovery stage(s).</t>
@@ -3537,9 +3390,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Scale stage(s).</t>
@@ -3567,9 +3417,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Scale stage(s).</t>
@@ -3597,9 +3444,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Discovery stage(s).</t>
@@ -3627,9 +3471,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Efficiency stage(s).</t>
@@ -3657,9 +3498,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Validation stage(s).</t>
@@ -3687,9 +3525,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Scale stage(s).</t>
@@ -3717,9 +3552,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Validation stage(s).</t>
@@ -3747,9 +3579,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Discovery, Validation stage(s).</t>
@@ -3777,9 +3606,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Discovery, Validation stage(s).</t>
@@ -3807,8 +3633,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
           <t>Sova - Australian Startup Setup Guide</t>
@@ -3841,9 +3665,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Scale stage(s).</t>
@@ -3871,9 +3692,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Validation stage(s).</t>
@@ -3901,9 +3719,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Scale stage(s).</t>
@@ -3931,9 +3746,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Scale stage(s).</t>
@@ -3961,9 +3773,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Efficiency stage(s).</t>
@@ -3991,9 +3800,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Efficiency stage(s).</t>
@@ -4021,8 +3827,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
           <t xml:space="preserve">Funding Opportunities Guide 2025-2026 </t>
@@ -4055,9 +3859,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Efficiency, Validation stage(s).</t>
@@ -4085,9 +3886,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Discovery stage(s).</t>
@@ -4115,9 +3913,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Discovery stage(s).</t>
@@ -4145,9 +3940,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Efficiency, Validation stage(s).</t>
@@ -4175,9 +3967,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Validation stage(s).</t>
@@ -4205,9 +3994,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Efficiency stage(s).</t>
@@ -4235,9 +4021,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Efficiency stage(s).</t>
@@ -4265,9 +4048,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Scale stage(s).</t>
@@ -4295,9 +4075,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Discovery stage(s).</t>
@@ -4325,9 +4102,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Efficiency stage(s).</t>
@@ -4355,9 +4129,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Efficiency, Validation stage(s).</t>
@@ -4385,9 +4156,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Efficiency stage(s).</t>
@@ -4415,9 +4183,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Scale stage(s).</t>
@@ -4445,9 +4210,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Validation stage(s).</t>
@@ -4475,9 +4237,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Discovery stage(s).</t>
@@ -4505,9 +4264,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Scale stage(s).</t>
@@ -4535,8 +4291,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
           <t>Sova - Australian Startup Tax Checklist</t>
@@ -4569,9 +4323,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Scale stage(s).</t>
@@ -4599,9 +4350,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Efficiency stage(s).</t>
@@ -4629,9 +4377,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Discovery stage(s).</t>
@@ -4659,9 +4404,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Scale stage(s).</t>
@@ -4689,9 +4431,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Discovery stage(s).</t>
@@ -4719,9 +4458,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Efficiency stage(s).</t>
@@ -4749,9 +4485,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Discovery stage(s).</t>
@@ -4779,9 +4512,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Efficiency stage(s).</t>
@@ -4809,9 +4539,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Scale stage(s).</t>
@@ -4839,9 +4566,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Efficiency, Validation stage(s).</t>
@@ -4869,9 +4593,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Scale stage(s).</t>
@@ -4899,9 +4620,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Validation stage(s).</t>
@@ -4929,9 +4647,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Scale stage(s).</t>
@@ -4959,9 +4674,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Validation stage(s).</t>
@@ -4989,9 +4701,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Validation stage(s).</t>
@@ -5019,9 +4728,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Discovery stage(s).</t>
@@ -5049,9 +4755,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Discovery stage(s).</t>
@@ -5079,9 +4782,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Efficiency stage(s).</t>
@@ -5109,9 +4809,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Validation stage(s).</t>
@@ -5139,9 +4836,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Validation stage(s).</t>
@@ -5169,9 +4863,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Scale stage(s).</t>
@@ -5199,9 +4890,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Scale stage(s).</t>
@@ -5229,9 +4917,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Efficiency stage(s).</t>
@@ -5259,9 +4944,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Discovery, Validation stage(s).</t>
@@ -5289,9 +4971,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Efficiency stage(s).</t>
@@ -5319,9 +4998,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Scale stage(s).</t>
@@ -5349,9 +5025,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Efficiency, Scale stage(s).</t>
@@ -5379,9 +5052,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Scale stage(s).</t>
@@ -5409,9 +5079,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Scale stage(s).</t>
@@ -5439,9 +5106,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Validation stage(s).</t>
@@ -5469,9 +5133,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Discovery stage(s).</t>
@@ -5499,9 +5160,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Validation stage(s).</t>
@@ -5529,9 +5187,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Discovery stage(s).</t>
@@ -5559,9 +5214,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Scale stage(s).</t>
@@ -5589,9 +5241,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Discovery stage(s).</t>
@@ -5619,9 +5268,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Scale stage(s).</t>
@@ -5649,9 +5295,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Scale stage(s).</t>
@@ -5679,9 +5322,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Discovery stage(s).</t>
@@ -5709,9 +5349,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Efficiency stage(s).</t>
@@ -5739,9 +5376,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Efficiency stage(s).</t>
@@ -5769,9 +5403,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Discovery stage(s).</t>
@@ -5799,8 +5430,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
           <t xml:space="preserve">Funding Opportunities Guide 2025-2026 </t>
@@ -5833,9 +5462,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Efficiency stage(s).</t>
@@ -5863,9 +5489,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Discovery stage(s).</t>
@@ -5893,9 +5516,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Validation stage(s).</t>
@@ -5923,8 +5543,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
           <t xml:space="preserve">Funding Opportunities Guide 2025-2026 </t>
@@ -5957,8 +5575,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
           <t xml:space="preserve">Funding Opportunities Guide 2025-2026 </t>
@@ -5991,9 +5607,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Scale stage(s).</t>
@@ -6021,9 +5634,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Validation stage(s).</t>
@@ -6051,9 +5661,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Validation stage(s).</t>
@@ -6081,9 +5688,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Efficiency, Validation stage(s).</t>
@@ -6111,9 +5715,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Efficiency stage(s).</t>
@@ -6141,8 +5742,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
           <t xml:space="preserve">Funding Opportunities Guide 2025-2026 </t>
@@ -6175,9 +5774,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Efficiency stage(s).</t>
@@ -6205,9 +5801,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Efficiency stage(s).</t>
@@ -6235,9 +5828,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Scale stage(s).</t>
@@ -6265,8 +5855,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
           <t>Sova - Experts and Networks Guide</t>
@@ -6299,9 +5887,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Scale stage(s).</t>
@@ -6329,9 +5914,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Scale stage(s).</t>
@@ -6359,9 +5941,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Validation stage(s).</t>
@@ -6389,9 +5968,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Validation stage(s).</t>
@@ -6419,9 +5995,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Discovery stage(s).</t>
@@ -6449,9 +6022,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Scale, Discovery stage(s).</t>
@@ -6479,9 +6049,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Scale stage(s).</t>
@@ -6509,9 +6076,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Efficiency stage(s).</t>
@@ -6539,9 +6103,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Scale stage(s).</t>
@@ -6569,9 +6130,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Scale stage(s).</t>
@@ -6599,8 +6157,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
           <t xml:space="preserve">Funding Opportunities Guide 2025-2026 </t>
@@ -6633,9 +6189,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Validation stage(s).</t>
@@ -6663,9 +6216,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Discovery stage(s).</t>
@@ -6693,9 +6243,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Efficiency stage(s).</t>
@@ -6723,9 +6270,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Discovery stage(s).</t>
@@ -6753,9 +6297,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Validation stage(s).</t>
@@ -6783,9 +6324,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Efficiency stage(s).</t>
@@ -6813,9 +6351,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Scale stage(s).</t>
@@ -6843,9 +6378,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Discovery stage(s).</t>
@@ -6873,9 +6405,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Efficiency stage(s).</t>
@@ -6903,9 +6432,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Discovery, Validation stage(s).</t>
@@ -6933,9 +6459,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Discovery, Validation stage(s).</t>
@@ -6963,9 +6486,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Validation stage(s).</t>
@@ -6993,9 +6513,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Discovery stage(s).</t>
@@ -7023,9 +6540,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Scale stage(s).</t>
@@ -7053,9 +6567,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Efficiency stage(s).</t>
@@ -7083,9 +6594,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Validation stage(s).</t>
@@ -7113,9 +6621,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Scale stage(s).</t>
@@ -7143,9 +6648,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Scale stage(s).</t>
@@ -7173,9 +6675,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Efficiency, Discovery stage(s).</t>
@@ -7203,9 +6702,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Efficiency stage(s).</t>
@@ -7233,9 +6729,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Scale stage(s).</t>
@@ -7263,9 +6756,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Efficiency stage(s).</t>
@@ -7293,9 +6783,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Scale stage(s).</t>
@@ -7323,9 +6810,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Discovery stage(s).</t>
@@ -7353,9 +6837,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Validation stage(s).</t>
@@ -7383,8 +6864,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr">
         <is>
           <t xml:space="preserve">Funding Opportunities Guide 2025-2026 </t>
@@ -7417,9 +6896,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Validation stage(s).</t>
@@ -7447,9 +6923,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Scale stage(s).</t>
@@ -7477,9 +6950,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Scale stage(s).</t>
@@ -7507,9 +6977,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Efficiency stage(s).</t>
@@ -7537,9 +7004,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Scale stage(s).</t>
@@ -7567,9 +7031,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Efficiency, Validation stage(s).</t>
@@ -7597,9 +7058,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Validation stage(s).</t>
@@ -7627,9 +7085,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Efficiency stage(s).</t>
@@ -7657,8 +7112,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr">
         <is>
           <t>Sova - Experts and Networks Guide</t>
@@ -7691,9 +7144,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Efficiency stage(s).</t>
@@ -7721,9 +7171,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Efficiency stage(s).</t>
@@ -7751,9 +7198,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Validation stage(s).</t>
@@ -7781,9 +7225,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Validation stage(s).</t>
@@ -7811,9 +7252,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Scale stage(s).</t>
@@ -7841,9 +7279,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Discovery stage(s).</t>
@@ -7871,9 +7306,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Scale stage(s).</t>
@@ -7901,9 +7333,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Discovery stage(s).</t>
@@ -7931,9 +7360,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Efficiency, Scale stage(s).</t>
@@ -7961,9 +7387,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Scale stage(s).</t>
@@ -7991,9 +7414,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Efficiency stage(s).</t>
@@ -8021,9 +7441,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Scale stage(s).</t>
@@ -8051,9 +7468,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Validation stage(s).</t>
@@ -8081,9 +7495,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Scale stage(s).</t>
@@ -8111,9 +7522,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Validation stage(s).</t>
@@ -8141,9 +7549,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Discovery stage(s).</t>
@@ -8171,9 +7576,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Scale stage(s).</t>
@@ -8201,9 +7603,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Efficiency stage(s).</t>
@@ -8231,9 +7630,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Validation stage(s).</t>
@@ -8261,9 +7657,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Validation stage(s).</t>
@@ -8291,9 +7684,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Discovery stage(s).</t>
@@ -8321,9 +7711,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Scale stage(s).</t>
@@ -8351,9 +7738,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Efficiency stage(s).</t>
@@ -8381,9 +7765,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Efficiency stage(s).</t>
@@ -8411,9 +7792,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Validation stage(s).</t>
@@ -8441,9 +7819,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Scale stage(s).</t>
@@ -8471,9 +7846,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Discovery stage(s).</t>
@@ -8501,8 +7873,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr">
         <is>
           <t xml:space="preserve">Funding Opportunities Guide 2025-2026 </t>
@@ -8535,9 +7905,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Efficiency, Validation stage(s).</t>
@@ -8565,9 +7932,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Scale stage(s).</t>
@@ -8595,9 +7959,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Discovery stage(s).</t>
@@ -8625,9 +7986,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Scale stage(s).</t>
@@ -8655,9 +8013,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Scale stage(s).</t>
@@ -8685,9 +8040,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Efficiency stage(s).</t>
@@ -8715,9 +8067,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Scale stage(s).</t>
@@ -8745,9 +8094,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Discovery stage(s).</t>
@@ -8775,9 +8121,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Discovery stage(s).</t>
@@ -8805,9 +8148,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Discovery stage(s).</t>
@@ -8835,9 +8175,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Discovery stage(s).</t>
@@ -8865,9 +8202,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Validation stage(s).</t>
@@ -8895,9 +8229,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Efficiency, Scale stage(s).</t>
@@ -8925,8 +8256,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr">
         <is>
           <t>Sova - Australian Startup Setup Guide</t>
@@ -8959,8 +8288,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr">
         <is>
           <t>Sova - Australian Startup Tax Checklist</t>
@@ -8993,8 +8320,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr">
         <is>
           <t>Sova - Australian Startup Tax Checklist</t>
@@ -9027,9 +8352,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Discovery stage(s).</t>
@@ -9057,9 +8379,6 @@
           <t>Governance</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr">
         <is>
           <t>Foundation for startup structure and accountability. Relevant at Scale stage(s).</t>
@@ -9087,9 +8406,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Efficiency stage(s).</t>
@@ -9117,9 +8433,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Efficiency stage(s).</t>
@@ -9147,9 +8460,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Discovery stage(s).</t>
@@ -9177,9 +8487,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Validation stage(s).</t>
@@ -9207,9 +8514,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Scale stage(s).</t>
@@ -9237,9 +8541,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Validation stage(s).</t>
@@ -9267,9 +8568,6 @@
           <t>Strategy</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr">
         <is>
           <t>Strategic planning and competitive positioning tool. Relevant at Validation stage(s).</t>
@@ -9297,9 +8595,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Scale stage(s).</t>
@@ -9327,9 +8622,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Scale stage(s).</t>
@@ -9357,9 +8649,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Validation stage(s).</t>
@@ -9387,9 +8676,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Efficiency stage(s).</t>
@@ -9417,9 +8703,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Discovery, Validation stage(s).</t>
@@ -9447,9 +8730,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Efficiency, Validation stage(s).</t>
@@ -9477,9 +8757,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Validation stage(s).</t>
@@ -9507,9 +8784,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Efficiency stage(s).</t>
@@ -9537,9 +8811,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Discovery stage(s).</t>
@@ -9567,9 +8838,6 @@
           <t>Technology</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr">
         <is>
           <t>Technical infrastructure and systems guidance. Relevant at Discovery, Validation stage(s).</t>
@@ -9597,9 +8865,6 @@
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr">
         <is>
           <t>Helps founders articulate why their business exists. Relevant at Discovery stage(s).</t>
@@ -9627,9 +8892,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Efficiency, Discovery stage(s).</t>
@@ -9657,9 +8919,6 @@
           <t>Performance</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr">
         <is>
           <t>Measurement and improvement framework. Relevant at Scale stage(s).</t>
@@ -9687,9 +8946,6 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr">
         <is>
           <t>Customer understanding and market engagement tool. Relevant at Scale stage(s).</t>
@@ -9717,9 +8973,6 @@
           <t>Process</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr">
         <is>
           <t>Operational efficiency and workflow optimisation. Relevant at Discovery stage(s).</t>
@@ -9747,9 +9000,6 @@
           <t>People</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr">
         <is>
           <t>Team development and culture building resource. Relevant at Discovery stage(s).</t>
@@ -9777,9 +9027,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Efficiency, Scale stage(s).</t>
@@ -9807,9 +9054,6 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr">
         <is>
           <t>Financial planning and capital management tool. Relevant at Discovery stage(s).</t>
@@ -9817,110 +9061,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C51">
-    <sortState ref="A2:C58">
-      <sortCondition ref="C1:C51"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G6" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G10" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G11" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G13" location=":~:text=The%20Double%20Diamond%20is%20a,%E2%80%94%20solutions%20that%20work%20(converging)" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A14" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G14" location=":~:text=They%20focus%20on%20people%20and,Finally%2C%20they%20do%20small%20interventions." r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A16" display="DFSS" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G16" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A17" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G17" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A18" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G18" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G19" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G20" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" display="Kotter's 8 step process" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A22" display="Model for Managing Complex Change" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G22" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A23" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G23" location=":~:text=SOSTAC%C2%AE%20has%20six%20steps,with%20Fiona%20Ellis%2DChadwick)." r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A24" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G24" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A25" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G25" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A26" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G26" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A27" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G27" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A28" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G28" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A29" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G29" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A30" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G30" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G31" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A32" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G32" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G33" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A34" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G34" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A35" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G35" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A36" display="PDSA" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G36" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A37" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G37" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A38" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G38" location=":~:text=SWOT%20stands%20for%20Strengths%2C%20Weaknesses,successful%20strategy%20for%20the%20future." r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A39" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G39" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A40" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G40" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A41" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A42" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A43" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A44" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A45" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A46" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A47" display="Poka-Yoke (AKA Zero Defects)" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A48" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A49" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A50" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A51" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A52" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A53" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A54" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A55" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G55" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A56" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G56" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A57" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G57" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A58" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G58" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A59" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G59" r:id="rId94"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>